--- a/lighthouse_accessibility_data.xlsx
+++ b/lighthouse_accessibility_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AG100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,120 +486,115 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Issues_Details</t>
+          <t>Accessibility_Keyboard_Focus_Interactive_controls_are_not_keyboard_focusable</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Keyboard_Focus_Interactive_controls_are_not_keyboard_focusable</t>
+          <t>Accessibility_Keyboard_Focus_Accessibility_keyboard_focus_priority</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Keyboard_Focus_Accessibility_keyboard_focus_priority</t>
+          <t>Accessibility_Keyboard_Focus_Accessibility_keyboard_focus_details</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Keyboard_Focus_Accessibility_keyboard_focus_details</t>
+          <t>Accessibility_Keyboard_Focus_Accessibility_keyboard_focus_wcag</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_Keyboard_Focus_Accessibility_keyboard_focus_wcag</t>
+          <t>A11y_Issue_High_Severity_Issues</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>A11y_Issue_High_Severity_Issues</t>
+          <t>A11y_Issue_ARIA_attributes_are_not_used_correctly</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>A11y_Issue_ARIA_attributes_are_not_used_correctly</t>
+          <t>Accessibility_aria_general_details</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_aria_general_details</t>
+          <t>Accessibility_aria_general_wcag</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_aria_general_wcag</t>
+          <t>Accessibility_aria_general_priority</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_aria_general_priority</t>
+          <t>A11y_Issue_Form_elements_do_not_have_associated_labels</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>A11y_Issue_Form_elements_do_not_have_associated_labels</t>
+          <t>Accessibility_forms_labels_wcag</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_forms_labels_wcag</t>
+          <t>Accessibility_forms_labels_details</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_forms_labels_details</t>
+          <t>Accessibility_forms_labels_priority</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Accessibility_forms_labels_priority</t>
+          <t>Image_elements_do_not_have_[alt]_attributes</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Image_elements_do_not_have_[alt]_attributes</t>
+          <t>ARIA_attributes_are_not_used_correctly</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>ARIA_attributes_are_not_used_correctly</t>
+          <t>Heading_elements_are_not_in_a_sequentially-descending_order</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Heading_elements_are_not_in_a_sequentially-descending_order</t>
+          <t>Buttons_do_not_have_an_accessible_name</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Buttons_do_not_have_an_accessible_name</t>
+          <t>Interactive_controls_are_not_keyboard_focusable</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Interactive_controls_are_not_keyboard_focusable</t>
+          <t>Form_elements_do_not_have_associated_labels</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Form_elements_do_not_have_associated_labels</t>
+          <t>Page_structure_lacks_proper_landmark_regions</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Page_structure_lacks_proper_landmark_regions</t>
+          <t>Document_language_is_not_specified</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Document_language_is_not_specified</t>
+          <t>Links_do_not_have_a_discernible_name</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Links_do_not_have_a_discernible_name</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Background_and_foreground_colors_do_not_have_a_sufficient_co...</t>
         </is>
@@ -644,68 +639,63 @@
       <c r="J2" t="n">
         <v>4</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.89, Severity: Low); ARIA attributes are not used correctly (Score: 0.78, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.72, Severity: Medium); Buttons do not have an accessible name (Score: 0.13, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="O2" t="n">
         <v>1</v>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.78, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.78, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.78, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.78, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0.89;Low</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.89;Low</t>
+          <t>0.78;Medium</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.78;Medium</t>
+          <t>0.72;Medium</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.72;Medium</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
           <t>0.13;High</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -748,102 +738,97 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.18, Severity: High); Interactive controls are not keyboard focusable (Score: 0.72, Severity: Medium); Form elements do not have associated labels (Score: 0.87, Severity: Low); Buttons do not have an accessible name (Score: 0.93, Severity: Low); Page structure lacks proper landmark regions (Score: 0.76, Severity: Medium)</t>
+          <t>0.72, Severity: Medium</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.72, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.72, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.72, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="O3" t="n">
         <v>1</v>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.18, Severity: High</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.18, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.18, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.18, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.87, Severity: Low</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.87, Severity: Low</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr">
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>0.18;High</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.93;Low</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.93;Low</t>
+          <t>0.72;Medium</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.72;Medium</t>
+          <t>0.87;Low</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.87;Low</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
           <t>0.76;Medium</t>
         </is>
       </c>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,72 +869,67 @@
       <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.71, Severity: Medium); ARIA attributes are not used correctly (Score: 0.65, Severity: Medium); Document language is not specified (Score: 0.79, Severity: Medium); Links do not have a discernible name (Score: 0.66, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.72, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="O4" t="n">
         <v>0</v>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.65, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.65, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.65, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.65, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0.71;Medium</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.71;Medium</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
           <t>0.65;Medium</t>
         </is>
       </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>0.72;Medium</t>
+        </is>
+      </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.72;Medium</t>
+          <t>0.79;Medium</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.79;Medium</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
           <t>0.66;Medium</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -990,64 +970,59 @@
       <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.87, Severity: Low); Document language is not specified (Score: 0.16, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.85, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="O5" t="n">
         <v>1</v>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.87, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.87, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.87;Low</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.87;Low</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
           <t>0.85;Low</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>0.16;High</t>
         </is>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1088,68 +1063,63 @@
       <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.32, Severity: High); Document language is not specified (Score: 0.83, Severity: Low); Links do not have a discernible name (Score: 0.12, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.27, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="O6" t="n">
         <v>3</v>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.32, Severity: High</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.32, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.32, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.32, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0.32;High</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.32;High</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
           <t>0.27;High</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>0.83;Low</t>
+        </is>
+      </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>0.83;Low</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
           <t>0.12;High</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1182,68 +1152,63 @@
       <c r="J7" t="n">
         <v>5</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Document language is not specified (Score: 0.35, Severity: High); Links do not have a discernible name (Score: 0.14, Severity: High); Form elements do not have associated labels (Score: 0.54, Severity: Medium); Buttons do not have an accessible name (Score: 0.11, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.18, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="O7" t="n">
         <v>4</v>
       </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.54, Severity: Medium</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.54, Severity: Medium</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.54, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.54, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>0.11;High</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>0.54;Medium</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>0.35;High</t>
+        </is>
+      </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>0.35;High</t>
+          <t>0.14;High</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
-        <is>
-          <t>0.14;High</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
         <is>
           <t>0.18;High</t>
         </is>
@@ -1288,68 +1253,63 @@
       <c r="J8" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.86, Severity: Low); Document language is not specified (Score: 0.75, Severity: Medium); Buttons do not have an accessible name (Score: 0.64, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.42, Severity: High); Page structure lacks proper landmark regions (Score: 0.99, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="O8" t="n">
         <v>1</v>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.86, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.86, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.86, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.86, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>0.86;Low</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr">
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.64;Medium</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>0.99;Low</t>
+        </is>
+      </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>0.99;Low</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
           <t>0.75;Medium</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr">
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
         <is>
           <t>0.42;High</t>
         </is>
@@ -1396,32 +1356,28 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.91, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.99, Severity: Low)</t>
+          <t>0.91, Severity: Low</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.91, Severity: Low</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.91, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.91, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P9" t="n">
+      <c r="O9" t="n">
         <v>0</v>
       </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
@@ -1433,17 +1389,16 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>0.91;Low</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>0.99;Low</t>
         </is>
@@ -1488,56 +1443,51 @@
       <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Form elements do not have associated labels (Score: 0.28, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
+      <c r="O10" t="n">
         <v>1</v>
       </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.28, Severity: High</t>
+        </is>
+      </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0.28, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.28, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.28, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>0.28;High</t>
         </is>
       </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1578,18 +1528,14 @@
       <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Heading elements are not in a sequentially-descending order (Score: 0.6, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="O11" t="n">
         <v>0</v>
       </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -1599,19 +1545,18 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>0.6;Medium</t>
         </is>
       </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1652,48 +1597,44 @@
       <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.46, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="O12" t="n">
         <v>1</v>
       </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.46, Severity: High</t>
+        </is>
+      </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.46, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.46, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.46, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>0.46;High</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
@@ -1701,7 +1642,6 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1742,18 +1682,14 @@
       <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Buttons do not have an accessible name (Score: 0.98, Severity: Low); Page structure lacks proper landmark regions (Score: 0.34, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="O13" t="n">
         <v>1</v>
       </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1764,22 +1700,21 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>0.98;Low</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>0.34;High</t>
         </is>
       </c>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1812,60 +1747,55 @@
       <c r="J14" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.86, Severity: Low); Form elements do not have associated labels (Score: 0.89, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
+      <c r="O14" t="n">
         <v>0</v>
       </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.89, Severity: Low</t>
+        </is>
+      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.89, Severity: Low</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.89, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.89, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
           <t>0.86;Low</t>
         </is>
       </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>0.89;Low</t>
         </is>
       </c>
+      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1908,82 +1838,77 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.43, Severity: High); Form elements do not have associated labels (Score: 0.98, Severity: Low); Buttons do not have an accessible name (Score: 0.79, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.78, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.42, Severity: High)</t>
+          <t>0.43, Severity: High</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.43, Severity: High</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.43, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.43, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P15" t="n">
+      <c r="O15" t="n">
         <v>2</v>
       </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.98, Severity: Low</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.98, Severity: Low</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.98, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.98, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>0.79;Medium</t>
+        </is>
+      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>0.79;Medium</t>
+          <t>0.43;High</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>0.43;High</t>
+          <t>0.98;Low</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>0.98;Low</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
           <t>0.42;High</t>
         </is>
       </c>
+      <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>0.78;Medium</t>
         </is>
@@ -2028,60 +1953,55 @@
       <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.69, Severity: Medium); Document language is not specified (Score: 0.85, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="n">
+      <c r="O16" t="n">
         <v>0</v>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.69, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.69, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.69, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.69, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>0.69;Medium</t>
         </is>
       </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>0.85;Low</t>
         </is>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2122,18 +2042,14 @@
       <c r="J17" t="n">
         <v>4</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Links do not have a discernible name (Score: 0.75, Severity: Medium); Buttons do not have an accessible name (Score: 0.64, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.7, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.17, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="n">
+      <c r="O17" t="n">
         <v>1</v>
       </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -2144,26 +2060,25 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>0.64;Medium</t>
         </is>
       </c>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr">
+      <c r="AD17" t="inlineStr">
         <is>
           <t>0.17;High</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0.75;Medium</t>
+        </is>
+      </c>
       <c r="AG17" t="inlineStr">
-        <is>
-          <t>0.75;Medium</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
         <is>
           <t>0.7;Medium</t>
         </is>
@@ -2210,32 +2125,28 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.52, Severity: Medium); Document language is not specified (Score: 0.99, Severity: Low); Interactive controls are not keyboard focusable (Score: 0.75, Severity: Medium)</t>
+          <t>0.75, Severity: Medium</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.75, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.75, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.75, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P18" t="n">
+      <c r="O18" t="n">
         <v>0</v>
       </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -2243,29 +2154,28 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>0.52;Medium</t>
         </is>
       </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>0.75;Medium</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr">
+      <c r="AE18" t="inlineStr">
         <is>
           <t>0.99;Low</t>
         </is>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2308,32 +2218,28 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.52, Severity: Medium)</t>
+          <t>0.52, Severity: Medium</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.52, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.52, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.52, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P19" t="n">
+      <c r="O19" t="n">
         <v>0</v>
       </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -2345,17 +2251,16 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
         <is>
           <t>0.52;Medium</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2396,60 +2301,55 @@
       <c r="J20" t="n">
         <v>2</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.71, Severity: Medium); Form elements do not have associated labels (Score: 0.81, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
+      <c r="O20" t="n">
         <v>0</v>
       </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0.81, Severity: Low</t>
+        </is>
+      </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.81, Severity: Low</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.81, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.81, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
           <t>0.71;Medium</t>
         </is>
       </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>0.81;Low</t>
         </is>
       </c>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2490,68 +2390,63 @@
       <c r="J21" t="n">
         <v>4</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Links do not have a discernible name (Score: 0.41, Severity: High); Form elements do not have associated labels (Score: 0.52, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.52, Severity: Medium); Buttons do not have an accessible name (Score: 0.52, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
+      <c r="O21" t="n">
         <v>1</v>
       </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0.52, Severity: Medium</t>
+        </is>
+      </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.52, Severity: Medium</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.52, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.52, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>0.52;Medium</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>0.52;Medium</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
         <is>
           <t>0.52;Medium</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>0.52;Medium</t>
-        </is>
-      </c>
+      <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>0.41;High</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2594,74 +2489,69 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.64, Severity: Medium); Form elements do not have associated labels (Score: 0.51, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.47, Severity: High)</t>
+          <t>0.64, Severity: Medium</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.64, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.64, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.64, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P22" t="n">
+      <c r="O22" t="n">
         <v>1</v>
       </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0.51, Severity: Medium</t>
+        </is>
+      </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.51, Severity: Medium</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.51, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.51, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>0.64;Medium</t>
+        </is>
+      </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>0.64;Medium</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
           <t>0.51;Medium</t>
         </is>
       </c>
+      <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>0.47;High</t>
         </is>
@@ -2708,32 +2598,28 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Document language is not specified (Score: 0.47, Severity: High); Interactive controls are not keyboard focusable (Score: 0.62, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.41, Severity: High); Buttons do not have an accessible name (Score: 0.18, Severity: High)</t>
+          <t>0.62, Severity: Medium</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.62, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.62, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.62, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P23" t="n">
+      <c r="O23" t="n">
         <v>3</v>
       </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -2743,31 +2629,30 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>0.41;High</t>
+        </is>
+      </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0.41;High</t>
+          <t>0.18;High</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>0.18;High</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
           <t>0.62;Medium</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr">
+      <c r="AE23" t="inlineStr">
         <is>
           <t>0.47;High</t>
         </is>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2808,64 +2693,59 @@
       <c r="J24" t="n">
         <v>4</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.53, Severity: Medium); Document language is not specified (Score: 0.33, Severity: High); Buttons do not have an accessible name (Score: 0.21, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.86, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
+      <c r="O24" t="n">
         <v>2</v>
       </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.53, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.53, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.53, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.53, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
+      <c r="Y24" t="inlineStr">
         <is>
           <t>0.53;Medium</t>
         </is>
       </c>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr">
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr">
         <is>
           <t>0.21;High</t>
         </is>
       </c>
+      <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr">
+      <c r="AE24" t="inlineStr">
         <is>
           <t>0.33;High</t>
         </is>
       </c>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr">
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr">
         <is>
           <t>0.86;Low</t>
         </is>
@@ -2902,84 +2782,79 @@
       <c r="J25" t="n">
         <v>5</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.52, Severity: Medium); ARIA attributes are not used correctly (Score: 0.73, Severity: Medium); Form elements do not have associated labels (Score: 0.17, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.2, Severity: High); Page structure lacks proper landmark regions (Score: 0.95, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
+      <c r="O25" t="n">
         <v>2</v>
       </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.73, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0.73, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.73, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.73, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.17, Severity: High</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0.17, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.17, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.17, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.52;Medium</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>0.52;Medium</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
           <t>0.73;Medium</t>
         </is>
       </c>
+      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>0.17;High</t>
+        </is>
+      </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>0.17;High</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
           <t>0.95;Low</t>
         </is>
       </c>
+      <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>0.2;High</t>
         </is>
@@ -3026,74 +2901,69 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.51, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.61, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.34, Severity: High)</t>
+          <t>0.61, Severity: Medium</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.61, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.61, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.61, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P26" t="n">
+      <c r="O26" t="n">
         <v>1</v>
       </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.51, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.51, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.51, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.51, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr">
+      <c r="Y26" t="inlineStr">
         <is>
           <t>0.51;Medium</t>
         </is>
       </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
         <is>
           <t>0.61;Medium</t>
         </is>
       </c>
+      <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>0.34;High</t>
         </is>
@@ -3138,18 +3008,14 @@
       <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.54, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
+      <c r="O27" t="n">
         <v>0</v>
       </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -3157,12 +3023,12 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>0.54;Medium</t>
         </is>
       </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
@@ -3171,7 +3037,6 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3212,56 +3077,51 @@
       <c r="J28" t="n">
         <v>2</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Form elements do not have associated labels (Score: 0.92, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.47, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
+      <c r="O28" t="n">
         <v>1</v>
       </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0.92, Severity: Low</t>
+        </is>
+      </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.92, Severity: Low</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.92, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.92, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>0.92;Low</t>
         </is>
       </c>
+      <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>0.47;High</t>
         </is>
@@ -3306,18 +3166,14 @@
       <c r="J29" t="n">
         <v>2</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Document language is not specified (Score: 0.53, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.33, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
+      <c r="O29" t="n">
         <v>1</v>
       </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
@@ -3331,19 +3187,18 @@
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>0.33;High</t>
+        </is>
+      </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>0.33;High</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
           <t>0.53;Medium</t>
         </is>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3386,32 +3241,28 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.81, Severity: Low); Interactive controls are not keyboard focusable (Score: 0.41, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.85, Severity: Low); Buttons do not have an accessible name (Score: 0.66, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.4, Severity: High)</t>
+          <t>0.41, Severity: High</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.41, Severity: High</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.41, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.41, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P30" t="n">
+      <c r="O30" t="n">
         <v>2</v>
       </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
@@ -3419,37 +3270,36 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>0.81;Low</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>0.85;Low</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0.85;Low</t>
+          <t>0.66;Medium</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>0.66;Medium</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
           <t>0.41;High</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr">
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr">
         <is>
           <t>0.4;High</t>
         </is>
       </c>
+      <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3490,84 +3340,79 @@
       <c r="J31" t="n">
         <v>4</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.76, Severity: Medium); Document language is not specified (Score: 0.66, Severity: Medium); Form elements do not have associated labels (Score: 0.94, Severity: Low); Heading elements are not in a sequentially-descending order (Score: 0.44, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
+      <c r="O31" t="n">
         <v>1</v>
       </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0.76, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.76, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.76, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.76, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.94, Severity: Low</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.94, Severity: Low</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.94, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.94, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr"/>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>0.76;Medium</t>
+        </is>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>0.76;Medium</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
           <t>0.44;High</t>
         </is>
       </c>
+      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>0.94;Low</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr">
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr">
         <is>
           <t>0.66;Medium</t>
         </is>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3600,60 +3445,55 @@
       <c r="J32" t="n">
         <v>3</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.94, Severity: Low); Links do not have a discernible name (Score: 0.86, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.92, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="n">
+      <c r="O32" t="n">
         <v>0</v>
       </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.94, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0.94, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.94, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.94, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr">
+      <c r="Y32" t="inlineStr">
         <is>
           <t>0.94;Low</t>
         </is>
       </c>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>0.86;Low</t>
+        </is>
+      </c>
       <c r="AG32" t="inlineStr">
-        <is>
-          <t>0.86;Low</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
         <is>
           <t>0.92;Low</t>
         </is>
@@ -3700,82 +3540,77 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.91, Severity: Low); ARIA attributes are not used correctly (Score: 0.1, Severity: High); Interactive controls are not keyboard focusable (Score: 0.85, Severity: Low); Heading elements are not in a sequentially-descending order (Score: 0.83, Severity: Low)</t>
+          <t>0.85, Severity: Low</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.85, Severity: Low</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.85, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.85, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P33" t="n">
+      <c r="O33" t="n">
         <v>1</v>
       </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0.1, Severity: High</t>
+        </is>
+      </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.1, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.1, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.1, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>0.91;Low</t>
+        </is>
+      </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>0.91;Low</t>
+          <t>0.1;High</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>0.1;High</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
           <t>0.83;Low</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr">
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
         <is>
           <t>0.85;Low</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3816,84 +3651,79 @@
       <c r="J34" t="n">
         <v>5</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.83, Severity: Low); Document language is not specified (Score: 0.27, Severity: High); Form elements do not have associated labels (Score: 0.19, Severity: High); Buttons do not have an accessible name (Score: 0.96, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.69, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="n">
+      <c r="O34" t="n">
         <v>2</v>
       </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.83, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.83, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.83, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.83, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.19, Severity: High</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.19, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.19, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.19, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr">
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
         <is>
           <t>0.83;Low</t>
         </is>
       </c>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr">
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr">
         <is>
           <t>0.96;Low</t>
         </is>
       </c>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr">
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr">
         <is>
           <t>0.19;High</t>
         </is>
       </c>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr">
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr">
         <is>
           <t>0.27;High</t>
         </is>
       </c>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr">
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr">
         <is>
           <t>0.69;Medium</t>
         </is>
@@ -3938,18 +3768,14 @@
       <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Background and foreground colors do not have a sufficient contrast ratio (Score: 0.14, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="n">
+      <c r="O35" t="n">
         <v>1</v>
       </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
@@ -3966,8 +3792,7 @@
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>0.14;High</t>
         </is>
@@ -4014,74 +3839,69 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.89, Severity: Low); Form elements do not have associated labels (Score: 0.48, Severity: High)</t>
+          <t>0.89, Severity: Low</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.89, Severity: Low</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.89, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.89, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P36" t="n">
+      <c r="O36" t="n">
         <v>1</v>
       </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>0.48, Severity: High</t>
+        </is>
+      </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>0.48, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.48, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.48, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>0.89;Low</t>
+        </is>
+      </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>0.89;Low</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
           <t>0.48;High</t>
         </is>
       </c>
+      <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4114,18 +3934,14 @@
       <c r="J37" t="n">
         <v>1</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Heading elements are not in a sequentially-descending order (Score: 0.68, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="n">
+      <c r="O37" t="n">
         <v>0</v>
       </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -4135,19 +3951,18 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t>0.68;Medium</t>
         </is>
       </c>
+      <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4188,18 +4003,14 @@
       <c r="J38" t="n">
         <v>3</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Links do not have a discernible name (Score: 0.92, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.26, Severity: High); Page structure lacks proper landmark regions (Score: 0.67, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="n">
+      <c r="O38" t="n">
         <v>1</v>
       </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
@@ -4213,19 +4024,18 @@
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>0.67;Medium</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>0.92;Low</t>
+        </is>
+      </c>
       <c r="AG38" t="inlineStr">
-        <is>
-          <t>0.92;Low</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
         <is>
           <t>0.26;High</t>
         </is>
@@ -4262,72 +4072,67 @@
       <c r="J39" t="n">
         <v>5</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.64, Severity: Medium); ARIA attributes are not used correctly (Score: 0.43, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.55, Severity: Medium); Buttons do not have an accessible name (Score: 0.56, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.2, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="n">
+      <c r="O39" t="n">
         <v>2</v>
       </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.43, Severity: High</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.43, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.43, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.43, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>0.64;Medium</t>
+        </is>
+      </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>0.64;Medium</t>
+          <t>0.43;High</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>0.43;High</t>
+          <t>0.55;Medium</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>0.55;Medium</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
           <t>0.56;Medium</t>
         </is>
       </c>
+      <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr">
+      <c r="AD39" t="inlineStr">
         <is>
           <t>0.2;High</t>
         </is>
       </c>
+      <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4370,82 +4175,77 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.19, Severity: High); Interactive controls are not keyboard focusable (Score: 0.64, Severity: Medium); Form elements do not have associated labels (Score: 0.77, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.31, Severity: High)</t>
+          <t>0.64, Severity: Medium</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.64, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.64, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.64, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P40" t="n">
+      <c r="O40" t="n">
         <v>2</v>
       </c>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>0.77, Severity: Medium</t>
+        </is>
+      </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>0.77, Severity: Medium</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.77, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.77, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
           <t>0.19;High</t>
         </is>
       </c>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>0.64;Medium</t>
+        </is>
+      </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>0.64;Medium</t>
+          <t>0.77;Medium</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>0.77;Medium</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
           <t>0.31;High</t>
         </is>
       </c>
+      <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4486,68 +4286,63 @@
       <c r="J41" t="n">
         <v>5</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Document language is not specified (Score: 0.76, Severity: Medium); Form elements do not have associated labels (Score: 0.11, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.76, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.96, Severity: Low); Page structure lacks proper landmark regions (Score: 0.47, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="n">
+      <c r="O41" t="n">
         <v>2</v>
       </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>0.11, Severity: High</t>
+        </is>
+      </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>0.11, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.11, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.11, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr">
+      <c r="Z41" t="inlineStr">
         <is>
           <t>0.76;Medium</t>
         </is>
       </c>
+      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>0.11;High</t>
+        </is>
+      </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>0.11;High</t>
+          <t>0.47;High</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>0.47;High</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
           <t>0.76;Medium</t>
         </is>
       </c>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr">
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr">
         <is>
           <t>0.96;Low</t>
         </is>
@@ -4592,60 +4387,55 @@
       <c r="J42" t="n">
         <v>2</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.98, Severity: Low); Form elements do not have associated labels (Score: 0.11, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="n">
+      <c r="O42" t="n">
         <v>1</v>
       </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>0.11, Severity: High</t>
+        </is>
+      </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>0.11, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.11, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.11, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
           <t>0.98;Low</t>
         </is>
       </c>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>0.11;High</t>
         </is>
       </c>
+      <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4688,82 +4478,77 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.72, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.69, Severity: Medium); Form elements do not have associated labels (Score: 0.6, Severity: Medium); Buttons do not have an accessible name (Score: 0.81, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.39, Severity: High)</t>
+          <t>0.69, Severity: Medium</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.69, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.69, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.69, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P43" t="n">
+      <c r="O43" t="n">
         <v>1</v>
       </c>
+      <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>0.6, Severity: Medium</t>
+        </is>
+      </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>0.6, Severity: Medium</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.6, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.6, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
           <t>0.72;Medium</t>
         </is>
       </c>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>0.81;Low</t>
+        </is>
+      </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>0.81;Low</t>
+          <t>0.69;Medium</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>0.69;Medium</t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr">
-        <is>
           <t>0.6;Medium</t>
         </is>
       </c>
+      <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr">
+      <c r="AG43" t="inlineStr">
         <is>
           <t>0.39;High</t>
         </is>
@@ -4808,68 +4593,63 @@
       <c r="J44" t="n">
         <v>4</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.29, Severity: High); Links do not have a discernible name (Score: 0.46, Severity: High); Form elements do not have associated labels (Score: 0.35, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.27, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="n">
+      <c r="O44" t="n">
         <v>4</v>
       </c>
+      <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>0.35, Severity: High</t>
+        </is>
+      </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>0.35, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.35, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.35, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
           <t>0.29;High</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr">
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
         <is>
           <t>0.27;High</t>
         </is>
       </c>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>0.35;High</t>
         </is>
       </c>
+      <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr">
+      <c r="AF44" t="inlineStr">
         <is>
           <t>0.46;High</t>
         </is>
       </c>
-      <c r="AH44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4912,32 +4692,28 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.65, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.92, Severity: Low)</t>
+          <t>0.65, Severity: Medium</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.65, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.65, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.65, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P45" t="n">
+      <c r="O45" t="n">
         <v>0</v>
       </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
@@ -4949,21 +4725,20 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr">
+      <c r="AB45" t="inlineStr">
         <is>
           <t>0.65;Medium</t>
         </is>
       </c>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr">
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr">
         <is>
           <t>0.92;Low</t>
         </is>
       </c>
+      <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5004,64 +4779,59 @@
       <c r="J46" t="n">
         <v>3</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.89, Severity: Low); ARIA attributes are not used correctly (Score: 0.71, Severity: Medium); Buttons do not have an accessible name (Score: 0.31, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="n">
+      <c r="O46" t="n">
         <v>1</v>
       </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>0.71, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.71, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.71, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.71, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>0.89;Low</t>
+        </is>
+      </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>0.89;Low</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
           <t>0.71;Medium</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr">
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr">
         <is>
           <t>0.31;High</t>
         </is>
       </c>
+      <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5104,32 +4874,28 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Document language is not specified (Score: 0.87, Severity: Low); Interactive controls are not keyboard focusable (Score: 0.23, Severity: High)</t>
+          <t>0.23, Severity: High</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.23, Severity: High</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.23, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.23, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P47" t="n">
+      <c r="O47" t="n">
         <v>1</v>
       </c>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
@@ -5141,21 +4907,20 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr">
+      <c r="AB47" t="inlineStr">
         <is>
           <t>0.23;High</t>
         </is>
       </c>
+      <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr">
+      <c r="AE47" t="inlineStr">
         <is>
           <t>0.87;Low</t>
         </is>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5196,60 +4961,55 @@
       <c r="J48" t="n">
         <v>2</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.12, Severity: High); Page structure lacks proper landmark regions (Score: 0.36, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="n">
+      <c r="O48" t="n">
         <v>2</v>
       </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.12, Severity: High</t>
+        </is>
+      </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.12, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.12, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.12, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr">
+      <c r="Y48" t="inlineStr">
         <is>
           <t>0.12;High</t>
         </is>
       </c>
+      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr">
+      <c r="AD48" t="inlineStr">
         <is>
           <t>0.36;High</t>
         </is>
       </c>
+      <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5290,18 +5050,14 @@
       <c r="J49" t="n">
         <v>3</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.38, Severity: High); Document language is not specified (Score: 0.15, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.57, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="n">
+      <c r="O49" t="n">
         <v>2</v>
       </c>
+      <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
@@ -5309,29 +5065,28 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr">
+      <c r="X49" t="inlineStr">
         <is>
           <t>0.38;High</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr">
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr">
         <is>
           <t>0.57;Medium</t>
         </is>
       </c>
+      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr">
+      <c r="AE49" t="inlineStr">
         <is>
           <t>0.15;High</t>
         </is>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5372,84 +5127,79 @@
       <c r="J50" t="n">
         <v>4</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.1, Severity: High); ARIA attributes are not used correctly (Score: 0.93, Severity: Low); Form elements do not have associated labels (Score: 0.44, Severity: High); Buttons do not have an accessible name (Score: 0.99, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="n">
+      <c r="O50" t="n">
         <v>2</v>
       </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.93, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0.93, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.93, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.93, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.44, Severity: High</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>0.44, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.44, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.44, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.1;High</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>0.1;High</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
           <t>0.93;Low</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr">
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr">
         <is>
           <t>0.99;Low</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr">
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr">
         <is>
           <t>0.44;High</t>
         </is>
       </c>
+      <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5492,86 +5242,81 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.15, Severity: High); Document language is not specified (Score: 0.41, Severity: High); Links do not have a discernible name (Score: 0.28, Severity: High); Interactive controls are not keyboard focusable (Score: 0.7, Severity: Medium); Buttons do not have an accessible name (Score: 0.86, Severity: Low)</t>
+          <t>0.7, Severity: Medium</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.7, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.7, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.7, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P51" t="n">
+      <c r="O51" t="n">
         <v>3</v>
       </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0.15, Severity: High</t>
+        </is>
+      </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0.15, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.15, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.15, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr">
+      <c r="Y51" t="inlineStr">
         <is>
           <t>0.15;High</t>
         </is>
       </c>
-      <c r="AA51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>0.86;Low</t>
+        </is>
+      </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>0.86;Low</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
           <t>0.7;Medium</t>
         </is>
       </c>
+      <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>0.41;High</t>
+        </is>
+      </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>0.41;High</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
           <t>0.28;High</t>
         </is>
       </c>
-      <c r="AH51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5614,82 +5359,77 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.88, Severity: Low); Interactive controls are not keyboard focusable (Score: 0.7, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.55, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.61, Severity: Medium)</t>
+          <t>0.7, Severity: Medium</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.7, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.7, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.7, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P52" t="n">
+      <c r="O52" t="n">
         <v>0</v>
       </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0.88, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.88, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.88, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.88, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>0.88;Low</t>
+        </is>
+      </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>0.88;Low</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
           <t>0.55;Medium</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr">
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
         <is>
           <t>0.7;Medium</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr">
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr">
         <is>
           <t>0.61;Medium</t>
         </is>
       </c>
+      <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5730,60 +5470,55 @@
       <c r="J53" t="n">
         <v>2</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.31, Severity: High); Buttons do not have an accessible name (Score: 0.42, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="n">
+      <c r="O53" t="n">
         <v>2</v>
       </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.31, Severity: High</t>
+        </is>
+      </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.31, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.31, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.31, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr">
+      <c r="Y53" t="inlineStr">
         <is>
           <t>0.31;High</t>
         </is>
       </c>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr">
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr">
         <is>
           <t>0.42;High</t>
         </is>
       </c>
+      <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5824,18 +5559,14 @@
       <c r="J54" t="n">
         <v>5</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.37, Severity: High); Document language is not specified (Score: 0.25, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.41, Severity: High); Buttons do not have an accessible name (Score: 0.64, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.43, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="n">
+      <c r="O54" t="n">
         <v>4</v>
       </c>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
@@ -5843,33 +5574,32 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr">
+      <c r="X54" t="inlineStr">
         <is>
           <t>0.37;High</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>0.41;High</t>
+        </is>
+      </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>0.41;High</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
           <t>0.64;Medium</t>
         </is>
       </c>
+      <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr">
+      <c r="AE54" t="inlineStr">
         <is>
           <t>0.25;High</t>
         </is>
       </c>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr">
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr">
         <is>
           <t>0.43;High</t>
         </is>
@@ -5916,82 +5646,77 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.25, Severity: High); Document language is not specified (Score: 0.72, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.99, Severity: Low); Form elements do not have associated labels (Score: 0.8, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.84, Severity: Low)</t>
+          <t>0.99, Severity: Low</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.99, Severity: Low</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.99, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.99, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P55" t="n">
+      <c r="O55" t="n">
         <v>1</v>
       </c>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>0.8, Severity: Low</t>
+        </is>
+      </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>0.8, Severity: Low</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.8, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.8, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
           <t>0.25;High</t>
         </is>
       </c>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>0.99;Low</t>
+        </is>
+      </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>0.99;Low</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
           <t>0.8;Low</t>
         </is>
       </c>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr">
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr">
         <is>
           <t>0.72;Medium</t>
         </is>
       </c>
-      <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="inlineStr">
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr">
         <is>
           <t>0.84;Low</t>
         </is>
@@ -6036,64 +5761,59 @@
       <c r="J56" t="n">
         <v>4</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.92, Severity: Low); Links do not have a discernible name (Score: 0.48, Severity: High); Buttons do not have an accessible name (Score: 0.38, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.4, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="n">
+      <c r="O56" t="n">
         <v>3</v>
       </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0.92, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0.92, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.92, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.92, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr">
+      <c r="Y56" t="inlineStr">
         <is>
           <t>0.92;Low</t>
         </is>
       </c>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr">
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr">
         <is>
           <t>0.38;High</t>
         </is>
       </c>
+      <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>0.48;High</t>
+        </is>
+      </c>
       <c r="AG56" t="inlineStr">
-        <is>
-          <t>0.48;High</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
         <is>
           <t>0.4;High</t>
         </is>
@@ -6138,60 +5858,55 @@
       <c r="J57" t="n">
         <v>3</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.41, Severity: High); Document language is not specified (Score: 0.96, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.26, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="n">
+      <c r="O57" t="n">
         <v>2</v>
       </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.41, Severity: High</t>
+        </is>
+      </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0.41, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.41, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.41, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr">
+      <c r="Y57" t="inlineStr">
         <is>
           <t>0.41;High</t>
         </is>
       </c>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr">
+      <c r="AE57" t="inlineStr">
         <is>
           <t>0.96;Low</t>
         </is>
       </c>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr">
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr">
         <is>
           <t>0.26;High</t>
         </is>
@@ -6238,98 +5953,93 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.45, Severity: High); Interactive controls are not keyboard focusable (Score: 0.58, Severity: Medium); Form elements do not have associated labels (Score: 0.86, Severity: Low); Page structure lacks proper landmark regions (Score: 0.29, Severity: High)</t>
+          <t>0.58, Severity: Medium</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0.58, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.58, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.58, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P58" t="n">
+      <c r="O58" t="n">
         <v>2</v>
       </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.45, Severity: High</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>0.45, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.45, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.45, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.86, Severity: Low</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>0.86, Severity: Low</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.86, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.86, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr">
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr">
         <is>
           <t>0.45;High</t>
         </is>
       </c>
+      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>0.58;Medium</t>
+        </is>
+      </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>0.58;Medium</t>
+          <t>0.86;Low</t>
         </is>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>0.86;Low</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
           <t>0.29;High</t>
         </is>
       </c>
+      <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6372,32 +6082,28 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.68, Severity: Medium)</t>
+          <t>0.68, Severity: Medium</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0.68, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.68, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.68, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P59" t="n">
+      <c r="O59" t="n">
         <v>0</v>
       </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -6409,17 +6115,16 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr">
+      <c r="AB59" t="inlineStr">
         <is>
           <t>0.68;Medium</t>
         </is>
       </c>
+      <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6460,18 +6165,14 @@
       <c r="J60" t="n">
         <v>3</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Document language is not specified (Score: 0.3, Severity: High); Buttons do not have an accessible name (Score: 0.82, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.61, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="n">
+      <c r="O60" t="n">
         <v>1</v>
       </c>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
@@ -6482,22 +6183,21 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr">
+      <c r="AA60" t="inlineStr">
         <is>
           <t>0.82;Low</t>
         </is>
       </c>
+      <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr">
+      <c r="AE60" t="inlineStr">
         <is>
           <t>0.3;High</t>
         </is>
       </c>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr">
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr">
         <is>
           <t>0.61;Medium</t>
         </is>
@@ -6544,98 +6244,93 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.51, Severity: Medium); Document language is not specified (Score: 0.68, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.91, Severity: Low); Form elements do not have associated labels (Score: 0.64, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.31, Severity: High)</t>
+          <t>0.91, Severity: Low</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0.91, Severity: Low</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.91, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.91, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P61" t="n">
+      <c r="O61" t="n">
         <v>1</v>
       </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.51, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>0.51, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.51, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.51, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.64, Severity: Medium</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>0.64, Severity: Medium</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.64, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.64, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr">
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr">
         <is>
           <t>0.51;Medium</t>
         </is>
       </c>
+      <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>0.91;Low</t>
+        </is>
+      </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>0.91;Low</t>
-        </is>
-      </c>
-      <c r="AD61" t="inlineStr">
-        <is>
           <t>0.64;Medium</t>
         </is>
       </c>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr">
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr">
         <is>
           <t>0.68;Medium</t>
         </is>
       </c>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr">
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr">
         <is>
           <t>0.31;High</t>
         </is>
@@ -6680,88 +6375,83 @@
       <c r="J62" t="n">
         <v>5</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.63, Severity: Medium); Document language is not specified (Score: 0.5, Severity: Medium); Links do not have a discernible name (Score: 0.9, Severity: Low); Form elements do not have associated labels (Score: 0.39, Severity: High); Page structure lacks proper landmark regions (Score: 0.76, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="n">
+      <c r="O62" t="n">
         <v>1</v>
       </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.63, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>0.63, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.63, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.63, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.39, Severity: High</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>0.39, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.39, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.39, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr">
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
         <is>
           <t>0.63;Medium</t>
         </is>
       </c>
+      <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>0.39;High</t>
+        </is>
+      </c>
       <c r="AD62" t="inlineStr">
         <is>
-          <t>0.39;High</t>
+          <t>0.76;Medium</t>
         </is>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
-          <t>0.76;Medium</t>
+          <t>0.5;Medium</t>
         </is>
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>0.5;Medium</t>
-        </is>
-      </c>
-      <c r="AG62" t="inlineStr">
-        <is>
           <t>0.9;Low</t>
         </is>
       </c>
-      <c r="AH62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6802,60 +6492,55 @@
       <c r="J63" t="n">
         <v>3</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.49, Severity: High); ARIA attributes are not used correctly (Score: 0.87, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.17, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="n">
+      <c r="O63" t="n">
         <v>2</v>
       </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>0.87, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>0.87, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>0.49;High</t>
+        </is>
+      </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>0.49;High</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
           <t>0.87;Low</t>
         </is>
       </c>
+      <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr">
+      <c r="AG63" t="inlineStr">
         <is>
           <t>0.17;High</t>
         </is>
@@ -6900,68 +6585,63 @@
       <c r="J64" t="n">
         <v>4</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.1, Severity: High); ARIA attributes are not used correctly (Score: 0.6, Severity: Medium); Links do not have a discernible name (Score: 0.38, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.54, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="n">
+      <c r="O64" t="n">
         <v>2</v>
       </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.6, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>0.6, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.6, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.6, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>0.1;High</t>
+        </is>
+      </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>0.1;High</t>
+          <t>0.6;Medium</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>0.6;Medium</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
           <t>0.54;Medium</t>
         </is>
       </c>
+      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr">
+      <c r="AF64" t="inlineStr">
         <is>
           <t>0.38;High</t>
         </is>
       </c>
-      <c r="AH64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7002,68 +6682,63 @@
       <c r="J65" t="n">
         <v>5</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.5, Severity: Medium); Links do not have a discernible name (Score: 0.49, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.38, Severity: High); Buttons do not have an accessible name (Score: 0.3, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.69, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="n">
+      <c r="O65" t="n">
         <v>3</v>
       </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.5, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>0.5, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.5, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.5, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>0.5;Medium</t>
+        </is>
+      </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>0.5;Medium</t>
+          <t>0.38;High</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>0.38;High</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
           <t>0.3;High</t>
         </is>
       </c>
+      <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>0.49;High</t>
+        </is>
+      </c>
       <c r="AG65" t="inlineStr">
-        <is>
-          <t>0.49;High</t>
-        </is>
-      </c>
-      <c r="AH65" t="inlineStr">
         <is>
           <t>0.69;Medium</t>
         </is>
@@ -7110,86 +6785,81 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Document language is not specified (Score: 0.65, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.89, Severity: Low); Form elements do not have associated labels (Score: 0.39, Severity: High); Buttons do not have an accessible name (Score: 0.32, Severity: High); Page structure lacks proper landmark regions (Score: 0.78, Severity: Medium)</t>
+          <t>0.89, Severity: Low</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.89, Severity: Low</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.89, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.89, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P66" t="n">
+      <c r="O66" t="n">
         <v>2</v>
       </c>
+      <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>0.39, Severity: High</t>
+        </is>
+      </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>0.39, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.39, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.39, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>0.32;High</t>
+        </is>
+      </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>0.32;High</t>
+          <t>0.89;Low</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>0.89;Low</t>
+          <t>0.39;High</t>
         </is>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
-          <t>0.39;High</t>
+          <t>0.78;Medium</t>
         </is>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
-          <t>0.78;Medium</t>
-        </is>
-      </c>
-      <c r="AF66" t="inlineStr">
-        <is>
           <t>0.65;Medium</t>
         </is>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7230,18 +6900,14 @@
       <c r="J67" t="n">
         <v>2</v>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Heading elements are not in a sequentially-descending order (Score: 0.39, Severity: High); Page structure lacks proper landmark regions (Score: 0.63, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="n">
+      <c r="O67" t="n">
         <v>1</v>
       </c>
+      <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
@@ -7251,23 +6917,22 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr">
+      <c r="Z67" t="inlineStr">
         <is>
           <t>0.39;High</t>
         </is>
       </c>
+      <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr">
+      <c r="AD67" t="inlineStr">
         <is>
           <t>0.63;Medium</t>
         </is>
       </c>
+      <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr"/>
-      <c r="AH67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -7308,56 +6973,51 @@
       <c r="J68" t="n">
         <v>2</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Form elements do not have associated labels (Score: 0.37, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.21, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="n">
+      <c r="O68" t="n">
         <v>2</v>
       </c>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>0.37, Severity: High</t>
+        </is>
+      </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>0.37, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.37, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.37, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr">
+      <c r="AC68" t="inlineStr">
         <is>
           <t>0.37;High</t>
         </is>
       </c>
+      <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr">
+      <c r="AG68" t="inlineStr">
         <is>
           <t>0.21;High</t>
         </is>
@@ -7402,18 +7062,14 @@
       <c r="J69" t="n">
         <v>2</v>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Document language is not specified (Score: 0.25, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.32, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="n">
+      <c r="O69" t="n">
         <v>2</v>
       </c>
+      <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
@@ -7423,23 +7079,22 @@
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr">
+      <c r="Z69" t="inlineStr">
         <is>
           <t>0.32;High</t>
         </is>
       </c>
+      <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="inlineStr">
+      <c r="AE69" t="inlineStr">
         <is>
           <t>0.25;High</t>
         </is>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
-      <c r="AH69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -7482,32 +7137,28 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.25, Severity: High)</t>
+          <t>0.25, Severity: High</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.25, Severity: High</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.25, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.25, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P70" t="n">
+      <c r="O70" t="n">
         <v>1</v>
       </c>
+      <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
@@ -7519,17 +7170,16 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="inlineStr">
+      <c r="AB70" t="inlineStr">
         <is>
           <t>0.25;High</t>
         </is>
       </c>
+      <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="inlineStr"/>
-      <c r="AH70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7570,18 +7220,14 @@
       <c r="J71" t="n">
         <v>1</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.62, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="n">
+      <c r="O71" t="n">
         <v>0</v>
       </c>
+      <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
@@ -7589,12 +7235,12 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr">
+      <c r="X71" t="inlineStr">
         <is>
           <t>0.62;Medium</t>
         </is>
       </c>
+      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
@@ -7603,7 +7249,6 @@
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -7646,32 +7291,28 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High)</t>
+          <t>0.14, Severity: High</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0.14, Severity: High</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P72" t="n">
+      <c r="O72" t="n">
         <v>1</v>
       </c>
+      <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
@@ -7683,17 +7324,16 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr">
+      <c r="AB72" t="inlineStr">
         <is>
           <t>0.14;High</t>
         </is>
       </c>
+      <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="inlineStr"/>
-      <c r="AH72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7734,18 +7374,14 @@
       <c r="J73" t="n">
         <v>3</v>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Document language is not specified (Score: 0.18, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.41, Severity: High); Page structure lacks proper landmark regions (Score: 0.44, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="n">
+      <c r="O73" t="n">
         <v>3</v>
       </c>
+      <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
@@ -7755,27 +7391,26 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr">
+      <c r="Z73" t="inlineStr">
         <is>
           <t>0.41;High</t>
         </is>
       </c>
+      <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>0.44;High</t>
+        </is>
+      </c>
       <c r="AE73" t="inlineStr">
         <is>
-          <t>0.44;High</t>
-        </is>
-      </c>
-      <c r="AF73" t="inlineStr">
-        <is>
           <t>0.18;High</t>
         </is>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -7816,64 +7451,59 @@
       <c r="J74" t="n">
         <v>3</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Links do not have a discernible name (Score: 0.14, Severity: High); Form elements do not have associated labels (Score: 0.57, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.71, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="n">
+      <c r="O74" t="n">
         <v>1</v>
       </c>
+      <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>0.57, Severity: Medium</t>
+        </is>
+      </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>0.57, Severity: Medium</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.57, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.57, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>0.57;Medium</t>
+        </is>
+      </c>
       <c r="AD74" t="inlineStr">
         <is>
-          <t>0.57;Medium</t>
-        </is>
-      </c>
-      <c r="AE74" t="inlineStr">
-        <is>
           <t>0.71;Medium</t>
         </is>
       </c>
-      <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr">
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr">
         <is>
           <t>0.14;High</t>
         </is>
       </c>
-      <c r="AH74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -7914,18 +7544,14 @@
       <c r="J75" t="n">
         <v>2</v>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.27, Severity: High); Buttons do not have an accessible name (Score: 0.12, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="n">
+      <c r="O75" t="n">
         <v>2</v>
       </c>
+      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
@@ -7933,25 +7559,24 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr">
+      <c r="X75" t="inlineStr">
         <is>
           <t>0.27;High</t>
         </is>
       </c>
+      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
-      <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr">
+      <c r="AA75" t="inlineStr">
         <is>
           <t>0.12;High</t>
         </is>
       </c>
+      <c r="AB75" t="inlineStr"/>
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
-      <c r="AH75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -7992,18 +7617,14 @@
       <c r="J76" t="n">
         <v>2</v>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.61, Severity: Medium); Links do not have a discernible name (Score: 0.73, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="n">
+      <c r="O76" t="n">
         <v>0</v>
       </c>
+      <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
@@ -8011,25 +7632,24 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr">
+      <c r="X76" t="inlineStr">
         <is>
           <t>0.61;Medium</t>
         </is>
       </c>
+      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="inlineStr">
+      <c r="AF76" t="inlineStr">
         <is>
           <t>0.73;Medium</t>
         </is>
       </c>
-      <c r="AH76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -8070,84 +7690,79 @@
       <c r="J77" t="n">
         <v>4</v>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.1, Severity: High); Document language is not specified (Score: 0.29, Severity: High); Links do not have a discernible name (Score: 0.39, Severity: High); Form elements do not have associated labels (Score: 0.52, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="n">
+      <c r="O77" t="n">
         <v>3</v>
       </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.1, Severity: High</t>
+        </is>
+      </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>0.1, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.1, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.1, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.52, Severity: Medium</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>0.52, Severity: Medium</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.52, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.52, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr">
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
         <is>
           <t>0.1;High</t>
         </is>
       </c>
+      <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr">
+      <c r="AC77" t="inlineStr">
         <is>
           <t>0.52;Medium</t>
         </is>
       </c>
-      <c r="AE77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>0.29;High</t>
+        </is>
+      </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>0.29;High</t>
-        </is>
-      </c>
-      <c r="AG77" t="inlineStr">
-        <is>
           <t>0.39;High</t>
         </is>
       </c>
-      <c r="AH77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -8188,64 +7803,59 @@
       <c r="J78" t="n">
         <v>4</v>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.2, Severity: High); Links do not have a discernible name (Score: 0.71, Severity: Medium); Buttons do not have an accessible name (Score: 0.81, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.68, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="n">
+      <c r="O78" t="n">
         <v>1</v>
       </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.2, Severity: High</t>
+        </is>
+      </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>0.2, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.2, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.2, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr">
+      <c r="Y78" t="inlineStr">
         <is>
           <t>0.2;High</t>
         </is>
       </c>
-      <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr">
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr">
         <is>
           <t>0.81;Low</t>
         </is>
       </c>
+      <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>0.71;Medium</t>
+        </is>
+      </c>
       <c r="AG78" t="inlineStr">
-        <is>
-          <t>0.71;Medium</t>
-        </is>
-      </c>
-      <c r="AH78" t="inlineStr">
         <is>
           <t>0.68;Medium</t>
         </is>
@@ -8290,18 +7900,14 @@
       <c r="J79" t="n">
         <v>1</v>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Heading elements are not in a sequentially-descending order (Score: 0.1, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="n">
+      <c r="O79" t="n">
         <v>1</v>
       </c>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
@@ -8311,19 +7917,18 @@
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
-      <c r="AA79" t="inlineStr">
+      <c r="Z79" t="inlineStr">
         <is>
           <t>0.1;High</t>
         </is>
       </c>
+      <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="inlineStr"/>
-      <c r="AH79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -8364,64 +7969,59 @@
       <c r="J80" t="n">
         <v>3</v>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.15, Severity: High); Form elements do not have associated labels (Score: 0.99, Severity: Low); Page structure lacks proper landmark regions (Score: 0.95, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="n">
+      <c r="O80" t="n">
         <v>1</v>
       </c>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>0.99, Severity: Low</t>
+        </is>
+      </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>0.99, Severity: Low</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.99, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.99, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y80" t="inlineStr">
-        <is>
           <t>0.15;High</t>
         </is>
       </c>
+      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>0.99;Low</t>
+        </is>
+      </c>
       <c r="AD80" t="inlineStr">
         <is>
-          <t>0.99;Low</t>
-        </is>
-      </c>
-      <c r="AE80" t="inlineStr">
-        <is>
           <t>0.95;Low</t>
         </is>
       </c>
+      <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="inlineStr"/>
-      <c r="AH80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -8462,56 +8062,51 @@
       <c r="J81" t="n">
         <v>1</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Form elements do not have associated labels (Score: 0.26, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="n">
+      <c r="O81" t="n">
         <v>1</v>
       </c>
+      <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>0.26, Severity: High</t>
+        </is>
+      </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>0.26, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.26, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.26, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr"/>
-      <c r="AD81" t="inlineStr">
+      <c r="AC81" t="inlineStr">
         <is>
           <t>0.26;High</t>
         </is>
       </c>
+      <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="inlineStr"/>
-      <c r="AH81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -8552,88 +8147,83 @@
       <c r="J82" t="n">
         <v>5</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.49, Severity: High); ARIA attributes are not used correctly (Score: 0.56, Severity: Medium); Form elements do not have associated labels (Score: 0.65, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.27, Severity: High); Page structure lacks proper landmark regions (Score: 0.85, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="n">
+      <c r="O82" t="n">
         <v>2</v>
       </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.56, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>0.56, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.56, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.56, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.65, Severity: Medium</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>0.65, Severity: Medium</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.65, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.65, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.49;High</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>0.49;High</t>
+          <t>0.56;Medium</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>0.56;Medium</t>
-        </is>
-      </c>
-      <c r="AA82" t="inlineStr">
-        <is>
           <t>0.27;High</t>
         </is>
       </c>
+      <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
-      <c r="AC82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>0.65;Medium</t>
+        </is>
+      </c>
       <c r="AD82" t="inlineStr">
         <is>
-          <t>0.65;Medium</t>
-        </is>
-      </c>
-      <c r="AE82" t="inlineStr">
-        <is>
           <t>0.85;Low</t>
         </is>
       </c>
+      <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="inlineStr"/>
-      <c r="AH82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -8674,60 +8264,55 @@
       <c r="J83" t="n">
         <v>2</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.42, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.15, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="n">
+      <c r="O83" t="n">
         <v>2</v>
       </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>0.42, Severity: High</t>
+        </is>
+      </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>0.42, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.42, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.42, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>0.42;High</t>
+        </is>
+      </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>0.42;High</t>
-        </is>
-      </c>
-      <c r="AA83" t="inlineStr">
-        <is>
           <t>0.15;High</t>
         </is>
       </c>
+      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="inlineStr"/>
-      <c r="AH83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -8768,68 +8353,63 @@
       <c r="J84" t="n">
         <v>5</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.82, Severity: Low); Links do not have a discernible name (Score: 0.71, Severity: Medium); Buttons do not have an accessible name (Score: 0.93, Severity: Low); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.92, Severity: Low); Page structure lacks proper landmark regions (Score: 0.85, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="n">
+      <c r="O84" t="n">
         <v>0</v>
       </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.82, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>0.82, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.82, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.82, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr">
+      <c r="Y84" t="inlineStr">
         <is>
           <t>0.82;Low</t>
         </is>
       </c>
-      <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr">
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr">
         <is>
           <t>0.93;Low</t>
         </is>
       </c>
+      <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr">
+      <c r="AD84" t="inlineStr">
         <is>
           <t>0.85;Low</t>
         </is>
       </c>
-      <c r="AF84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>0.71;Medium</t>
+        </is>
+      </c>
       <c r="AG84" t="inlineStr">
-        <is>
-          <t>0.71;Medium</t>
-        </is>
-      </c>
-      <c r="AH84" t="inlineStr">
         <is>
           <t>0.92;Low</t>
         </is>
@@ -8876,32 +8456,28 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.11, Severity: High); Interactive controls are not keyboard focusable (Score: 0.26, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.65, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.33, Severity: High)</t>
+          <t>0.26, Severity: High</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0.26, Severity: High</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.26, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.26, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P85" t="n">
+      <c r="O85" t="n">
         <v>3</v>
       </c>
+      <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
@@ -8909,29 +8485,28 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
+      <c r="X85" t="inlineStr">
         <is>
           <t>0.11;High</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr">
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr">
         <is>
           <t>0.65;Medium</t>
         </is>
       </c>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr">
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr">
         <is>
           <t>0.26;High</t>
         </is>
       </c>
+      <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
-      <c r="AH85" t="inlineStr">
+      <c r="AG85" t="inlineStr">
         <is>
           <t>0.33;High</t>
         </is>
@@ -8976,60 +8551,55 @@
       <c r="J86" t="n">
         <v>2</v>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Links do not have a discernible name (Score: 0.25, Severity: High); Form elements do not have associated labels (Score: 0.87, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="n">
+      <c r="O86" t="n">
         <v>1</v>
       </c>
+      <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>0.87, Severity: Low</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>0.87, Severity: Low</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.87, Severity: Low) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="inlineStr">
+      <c r="AC86" t="inlineStr">
         <is>
           <t>0.87;Low</t>
         </is>
       </c>
+      <c r="AD86" t="inlineStr"/>
       <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="inlineStr">
+      <c r="AF86" t="inlineStr">
         <is>
           <t>0.25;High</t>
         </is>
       </c>
-      <c r="AH86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -9070,68 +8640,63 @@
       <c r="J87" t="n">
         <v>4</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.7, Severity: Medium); ARIA attributes are not used correctly (Score: 0.77, Severity: Medium); Links do not have a discernible name (Score: 0.69, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.21, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="n">
+      <c r="O87" t="n">
         <v>1</v>
       </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>0.77, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>0.77, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.77, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.77, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>0.7;Medium</t>
+        </is>
+      </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>0.7;Medium</t>
+          <t>0.77;Medium</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>0.77;Medium</t>
-        </is>
-      </c>
-      <c r="AA87" t="inlineStr">
-        <is>
           <t>0.21;High</t>
         </is>
       </c>
+      <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="inlineStr">
+      <c r="AF87" t="inlineStr">
         <is>
           <t>0.69;Medium</t>
         </is>
       </c>
-      <c r="AH87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -9172,18 +8737,14 @@
       <c r="J88" t="n">
         <v>1</v>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Links do not have a discernible name (Score: 0.38, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="n">
+      <c r="O88" t="n">
         <v>1</v>
       </c>
+      <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
@@ -9199,13 +8760,12 @@
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
       <c r="AE88" t="inlineStr"/>
-      <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr">
+      <c r="AF88" t="inlineStr">
         <is>
           <t>0.38;High</t>
         </is>
       </c>
-      <c r="AH88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -9246,88 +8806,83 @@
       <c r="J89" t="n">
         <v>5</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.48, Severity: High); ARIA attributes are not used correctly (Score: 0.24, Severity: High); Form elements do not have associated labels (Score: 0.34, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.43, Severity: High); Page structure lacks proper landmark regions (Score: 0.35, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="n">
+      <c r="O89" t="n">
         <v>5</v>
       </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>0.24, Severity: High</t>
+        </is>
+      </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>0.24, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.24, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.24, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.34, Severity: High</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>0.34, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.34, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.34, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.48;High</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>0.48;High</t>
+          <t>0.24;High</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>0.24;High</t>
-        </is>
-      </c>
-      <c r="AA89" t="inlineStr">
-        <is>
           <t>0.43;High</t>
         </is>
       </c>
+      <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>0.34;High</t>
+        </is>
+      </c>
       <c r="AD89" t="inlineStr">
         <is>
-          <t>0.34;High</t>
-        </is>
-      </c>
-      <c r="AE89" t="inlineStr">
-        <is>
           <t>0.35;High</t>
         </is>
       </c>
+      <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="inlineStr"/>
-      <c r="AH89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -9368,72 +8923,67 @@
       <c r="J90" t="n">
         <v>5</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.99, Severity: Low); Document language is not specified (Score: 0.71, Severity: Medium); Links do not have a discernible name (Score: 0.79, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.52, Severity: Medium); Buttons do not have an accessible name (Score: 0.17, Severity: High)</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="n">
+      <c r="O90" t="n">
         <v>1</v>
       </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>0.99, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>0.99, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.99, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.99, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>0.99;Low</t>
+        </is>
+      </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>0.99;Low</t>
+          <t>0.52;Medium</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>0.52;Medium</t>
-        </is>
-      </c>
-      <c r="AB90" t="inlineStr">
-        <is>
           <t>0.17;High</t>
         </is>
       </c>
+      <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>0.71;Medium</t>
+        </is>
+      </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>0.71;Medium</t>
-        </is>
-      </c>
-      <c r="AG90" t="inlineStr">
-        <is>
           <t>0.79;Medium</t>
         </is>
       </c>
-      <c r="AH90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -9466,18 +9016,14 @@
       <c r="J91" t="n">
         <v>2</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Document language is not specified (Score: 0.26, Severity: High); Page structure lacks proper landmark regions (Score: 0.69, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="n">
+      <c r="O91" t="n">
         <v>1</v>
       </c>
+      <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
@@ -9491,19 +9037,18 @@
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
-      <c r="AD91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>0.69;Medium</t>
+        </is>
+      </c>
       <c r="AE91" t="inlineStr">
         <is>
-          <t>0.69;Medium</t>
-        </is>
-      </c>
-      <c r="AF91" t="inlineStr">
-        <is>
           <t>0.26;High</t>
         </is>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="inlineStr"/>
-      <c r="AH91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -9544,18 +9089,14 @@
       <c r="J92" t="n">
         <v>2</v>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Buttons do not have an accessible name (Score: 0.56, Severity: Medium); Page structure lacks proper landmark regions (Score: 0.72, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="n">
+      <c r="O92" t="n">
         <v>0</v>
       </c>
+      <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
@@ -9566,22 +9107,21 @@
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr">
+      <c r="AA92" t="inlineStr">
         <is>
           <t>0.56;Medium</t>
         </is>
       </c>
+      <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
-      <c r="AD92" t="inlineStr"/>
-      <c r="AE92" t="inlineStr">
+      <c r="AD92" t="inlineStr">
         <is>
           <t>0.72;Medium</t>
         </is>
       </c>
+      <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="inlineStr"/>
-      <c r="AH92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -9624,102 +9164,97 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.35, Severity: High); ARIA attributes are not used correctly (Score: 0.27, Severity: High); Document language is not specified (Score: 0.82, Severity: Low); Interactive controls are not keyboard focusable (Score: 0.14, Severity: High); Form elements do not have associated labels (Score: 0.38, Severity: High)</t>
+          <t>0.14, Severity: High</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>0.14, Severity: High</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P93" t="n">
+      <c r="O93" t="n">
         <v>4</v>
       </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.27, Severity: High</t>
+        </is>
+      </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>0.27, Severity: High</t>
+          <t>ARIA attributes are not used correctly (Score: 0.27, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.27, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.38, Severity: High</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>0.38, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.38, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.38, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>0.35;High</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>0.35;High</t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
           <t>0.27;High</t>
         </is>
       </c>
+      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>0.14;High</t>
+        </is>
+      </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>0.14;High</t>
-        </is>
-      </c>
-      <c r="AD93" t="inlineStr">
-        <is>
           <t>0.38;High</t>
         </is>
       </c>
-      <c r="AE93" t="inlineStr"/>
-      <c r="AF93" t="inlineStr">
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr">
         <is>
           <t>0.82;Low</t>
         </is>
       </c>
+      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="inlineStr"/>
-      <c r="AH93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -9762,32 +9297,28 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.52, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.14, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.26, Severity: High)</t>
+          <t>0.14, Severity: High</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0.14, Severity: High</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.14, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P94" t="n">
+      <c r="O94" t="n">
         <v>2</v>
       </c>
+      <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
@@ -9795,29 +9326,28 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr">
+      <c r="X94" t="inlineStr">
         <is>
           <t>0.52;Medium</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr">
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr">
         <is>
           <t>0.26;High</t>
         </is>
       </c>
-      <c r="AB94" t="inlineStr"/>
-      <c r="AC94" t="inlineStr">
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr">
         <is>
           <t>0.14;High</t>
         </is>
       </c>
+      <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="inlineStr"/>
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="inlineStr"/>
-      <c r="AH94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -9858,48 +9388,44 @@
       <c r="J95" t="n">
         <v>1</v>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.93, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="n">
+      <c r="O95" t="n">
         <v>0</v>
       </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>0.93, Severity: Low</t>
+        </is>
+      </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>0.93, Severity: Low</t>
+          <t>ARIA attributes are not used correctly (Score: 0.93, Severity: Low) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.93, Severity: Low) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr">
+      <c r="Y95" t="inlineStr">
         <is>
           <t>0.93;Low</t>
         </is>
       </c>
+      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
@@ -9907,7 +9433,6 @@
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="inlineStr"/>
-      <c r="AH95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -9948,68 +9473,63 @@
       <c r="J96" t="n">
         <v>5</v>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>ARIA attributes are not used correctly (Score: 0.73, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.84, Severity: Low); Buttons do not have an accessible name (Score: 0.34, Severity: High); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.33, Severity: High); Page structure lacks proper landmark regions (Score: 0.71, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="n">
+      <c r="O96" t="n">
         <v>2</v>
       </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.73, Severity: Medium</t>
+        </is>
+      </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>0.73, Severity: Medium</t>
+          <t>ARIA attributes are not used correctly (Score: 0.73, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>ARIA attributes are not used correctly (Score: 0.73, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
+          <t>4.1.2 Name, Role, Value</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>4.1.2 Name, Role, Value</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
+          <t>P4 - To Be Evaluated</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>0.73;Medium</t>
+        </is>
+      </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>0.73;Medium</t>
+          <t>0.84;Low</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>0.84;Low</t>
-        </is>
-      </c>
-      <c r="AB96" t="inlineStr">
-        <is>
           <t>0.34;High</t>
         </is>
       </c>
+      <c r="AB96" t="inlineStr"/>
       <c r="AC96" t="inlineStr"/>
-      <c r="AD96" t="inlineStr"/>
-      <c r="AE96" t="inlineStr">
+      <c r="AD96" t="inlineStr">
         <is>
           <t>0.71;Medium</t>
         </is>
       </c>
+      <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr"/>
-      <c r="AG96" t="inlineStr"/>
-      <c r="AH96" t="inlineStr">
+      <c r="AG96" t="inlineStr">
         <is>
           <t>0.33;High</t>
         </is>
@@ -10056,32 +9576,28 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.14, Severity: High); Interactive controls are not keyboard focusable (Score: 0.63, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.86, Severity: Low)</t>
+          <t>0.63, Severity: Medium</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0.63, Severity: Medium</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.63, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.63, Severity: Medium) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P97" t="n">
+      <c r="O97" t="n">
         <v>1</v>
       </c>
+      <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
@@ -10089,29 +9605,28 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr">
+      <c r="X97" t="inlineStr">
         <is>
           <t>0.14;High</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr">
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr">
         <is>
           <t>0.86;Low</t>
         </is>
       </c>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr">
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr">
         <is>
           <t>0.63;Medium</t>
         </is>
       </c>
+      <c r="AC97" t="inlineStr"/>
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="inlineStr"/>
-      <c r="AH97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -10152,18 +9667,14 @@
       <c r="J98" t="n">
         <v>4</v>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Links do not have a discernible name (Score: 0.58, Severity: Medium); Heading elements are not in a sequentially-descending order (Score: 0.65, Severity: Medium); Background and foreground colors do not have a sufficient contrast ratio (Score: 0.17, Severity: High); Page structure lacks proper landmark regions (Score: 0.76, Severity: Medium)</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="n">
+      <c r="O98" t="n">
         <v>1</v>
       </c>
+      <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
@@ -10173,27 +9684,26 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
       <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr">
+      <c r="Z98" t="inlineStr">
         <is>
           <t>0.65;Medium</t>
         </is>
       </c>
+      <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
-      <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr">
+      <c r="AD98" t="inlineStr">
         <is>
           <t>0.76;Medium</t>
         </is>
       </c>
-      <c r="AF98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>0.58;Medium</t>
+        </is>
+      </c>
       <c r="AG98" t="inlineStr">
-        <is>
-          <t>0.58;Medium</t>
-        </is>
-      </c>
-      <c r="AH98" t="inlineStr">
         <is>
           <t>0.17;High</t>
         </is>
@@ -10238,18 +9748,14 @@
       <c r="J99" t="n">
         <v>1</v>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Links do not have a discernible name (Score: 0.84, Severity: Low)</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="n">
+      <c r="O99" t="n">
         <v>0</v>
       </c>
+      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="inlineStr"/>
@@ -10265,13 +9771,12 @@
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr">
+      <c r="AF99" t="inlineStr">
         <is>
           <t>0.84;Low</t>
         </is>
       </c>
-      <c r="AH99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -10314,86 +9819,81 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Image elements do not have `[alt]` attributes (Score: 0.57, Severity: Medium); Links do not have a discernible name (Score: 0.55, Severity: Medium); Interactive controls are not keyboard focusable (Score: 0.42, Severity: High); Form elements do not have associated labels (Score: 0.16, Severity: High); Heading elements are not in a sequentially-descending order (Score: 0.82, Severity: Low)</t>
+          <t>0.42, Severity: High</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0.42, Severity: High</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
+          <t>Interactive controls are not keyboard focusable (Score: 0.42, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Interactive controls are not keyboard focusable (Score: 0.42, Severity: High) (Score: N/A, Severity: Unknown)</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
           <t>2.1.1 Keyboard</t>
         </is>
       </c>
-      <c r="P100" t="n">
+      <c r="O100" t="n">
         <v>2</v>
       </c>
+      <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>0.16, Severity: High</t>
+        </is>
+      </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>0.16, Severity: High</t>
+          <t>3.3.2 Labels or Instructions</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>3.3.2 Labels or Instructions</t>
+          <t>Form elements do not have associated labels (Score: 0.16, Severity: High) (Score: N/A, Severity: Unknown)</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Form elements do not have associated labels (Score: 0.16, Severity: High) (Score: N/A, Severity: Unknown)</t>
+          <t>P4 - To Be Evaluated</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>P4 - To Be Evaluated</t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr">
-        <is>
           <t>0.57;Medium</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr">
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr">
         <is>
           <t>0.82;Low</t>
         </is>
       </c>
-      <c r="AB100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>0.42;High</t>
+        </is>
+      </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>0.42;High</t>
-        </is>
-      </c>
-      <c r="AD100" t="inlineStr">
-        <is>
           <t>0.16;High</t>
         </is>
       </c>
+      <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr">
+      <c r="AF100" t="inlineStr">
         <is>
           <t>0.55;Medium</t>
         </is>
       </c>
-      <c r="AH100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
